--- a/数据整理/stocks/A股/深证主板/002182-云海金属.xlsx
+++ b/数据整理/stocks/A股/深证主板/002182-云海金属.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>090018</t>
+          <t>050004</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>大成新锐产业混合</t>
+          <t>博时精选混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>91.27</t>
+          <t>31.04</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2695</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>050004</t>
+          <t>270001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博时精选混合A</t>
+          <t>广发聚富混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>91.16</t>
+          <t>15.28</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>74.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5516</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>270001</t>
+          <t>001763</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发聚富混合</t>
+          <t>广发多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>74.92</t>
+          <t>7.04</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3126</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>9</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001763</t>
+          <t>090018</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发多策略灵活配置混合</t>
+          <t>大成新锐产业混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>91.75</t>
+          <t>8.92</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2988</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -614,15 +664,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>25.83</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>2.10</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -642,15 +702,23 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>25.83</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>2.10</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -665,7 +733,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,15 +754,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -716,15 +794,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>27.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>74.75</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.24</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6149</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002182-云海金属.xlsx
+++ b/数据整理/stocks/A股/深证主板/002182-云海金属.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -819,4 +820,440 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002943</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9239</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>340008</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全有机增长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6960</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>100056</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国低碳环保混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6198</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011212</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>45.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5313</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005739</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国转型机遇混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4180</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006527</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国优质发展混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1069</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011213</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>45.58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005117</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006528</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国优质发展混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005118</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002182-云海金属.xlsx
+++ b/数据整理/stocks/A股/深证主板/002182-云海金属.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1256,4 +1257,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012719</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>61.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8671</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>340008</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全有机增长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7064</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001113</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3121</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011815</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>恒越优势精选混合型发起式证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2891</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001825</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信中国制造2025股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0870</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012720</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>61.82</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004344</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方大数据100指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002182-云海金属.xlsx
+++ b/数据整理/stocks/A股/深证主板/002182-云海金属.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1579,4 +1580,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.41</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002182-云海金属.xlsx
+++ b/数据整理/stocks/A股/深证主板/002182-云海金属.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1588,7 +1589,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1599,17 +1600,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1619,14 +1640,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.31</v>
+          <t>002952</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信多因子量化股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1635,14 +1678,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.41</v>
+          <t>004794</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1651,14 +1716,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>004795</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>0.61</v>
+        <v>5.41</v>
       </c>
     </row>
     <row r="5">
@@ -1667,13 +1838,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.43</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002182-云海金属.xlsx
+++ b/数据整理/stocks/A股/深证主板/002182-云海金属.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1759,7 +1760,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1770,17 +1771,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1790,14 +1811,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.01</v>
+          <t>001113</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3181</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1806,14 +1849,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.31</v>
+          <t>001907</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1083</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1822,14 +1887,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>001908</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.41</v>
       </c>
     </row>
     <row r="5">
@@ -1838,14 +1925,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.61</v>
+          <t>015309</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1854,13 +1963,243 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>004344</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方大数据100指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004794</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004795</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.41</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.43</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002182-云海金属.xlsx
+++ b/数据整理/stocks/A股/深证主板/002182-云海金属.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2082,7 +2083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2093,17 +2094,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2113,14 +2134,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.52</v>
+          <t>010673</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4151</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2129,14 +2172,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.01</v>
+          <t>001907</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3383</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2145,14 +2210,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.31</v>
+          <t>001908</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2178</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -2161,14 +2248,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>10</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.41</v>
+          <t>011815</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>恒越优势精选混合型发起式证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1613</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -2177,14 +2286,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.61</v>
+          <t>008347</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1265</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -2193,13 +2324,563 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>003822</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>72.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0883</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014126</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0740</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015309</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010674</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>96.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008348</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>75.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001242</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001243</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数I</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007468</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>76.36</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003823</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>72.45</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007469</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>76.36</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014125</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.41</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>2.43</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002182-云海金属.xlsx
+++ b/数据整理/stocks/A股/深证主板/002182-云海金属.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D3" t="n">
-        <v>0.52</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>2.31</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>5.41</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>0.61</v>
+        <v>5.41</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>6</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>2.43</v>
       </c>
     </row>
@@ -600,6 +617,404 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001908</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3648</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010425</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3318</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010673</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3113</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001907</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3008</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>015309</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2144</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010426</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010674</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>96.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015148</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>015149</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1263,7 +1678,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1585,7 +2000,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1755,7 +2170,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2077,7 +2492,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2513,7 +2928,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2607,7 +3022,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002182-云海金属.xlsx
+++ b/数据整理/stocks/A股/深证主板/002182-云海金属.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>1.62</v>
+        <v>5.28</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D4" t="n">
-        <v>0.52</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>2.31</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>5.41</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D8" t="n">
-        <v>0.61</v>
+        <v>5.41</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>6</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>2.43</v>
       </c>
     </row>
@@ -616,7 +633,953 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>050004</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2695</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>270001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发聚富混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>74.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5516</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001763</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3126</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>090018</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成新锐产业混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2988</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004913</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>25.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004914</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>25.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163409</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全绿色投资混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1904</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>070021</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实主题新动力混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8557</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000985</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实逆向策略股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5669</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012466</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4757</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001907</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3762</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001908</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3709</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010425</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3535</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010673</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.63</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.84</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3145</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>015309</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2574</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013627</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1597</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013626</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1351</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014307</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实多元动力混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012467</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010426</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010674</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>95.84</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014308</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实多元动力混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1014,7 +1977,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1678,7 +2641,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2000,7 +2963,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2170,7 +3133,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2492,7 +3455,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2928,7 +3891,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3020,286 +3983,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>050004</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>博时精选混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>31.04</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.16</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.2695</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>270001</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发聚富混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>15.28</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>74.92</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.5516</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001763</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>7.04</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.75</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3126</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>090018</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>大成新锐产业混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>8.92</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.27</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2988</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>004913</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中银证券聚瑞混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>25.83</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0017</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>004914</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中银证券聚瑞混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>25.83</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>